--- a/doc/System layers.xlsx
+++ b/doc/System layers.xlsx
@@ -262,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -393,19 +393,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -417,7 +404,80 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -425,6 +485,66 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -450,36 +570,51 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1057,57 +1192,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F14:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="16" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="6:10" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="6:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="2" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="6:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="8"/>
     </row>
     <row r="20" spans="6:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="6:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F21" s="7" t="s">
+    <row r="21" spans="6:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8" t="s">
+      <c r="G21" s="12"/>
+      <c r="H21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="15" t="s">
         <v>4</v>
       </c>
     </row>

--- a/doc/System layers.xlsx
+++ b/doc/System layers.xlsx
@@ -23,9 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>EnigmaIoT</t>
-  </si>
-  <si>
     <t>ESP-NOW</t>
   </si>
   <si>
@@ -33,9 +30,6 @@
   </si>
   <si>
     <t>nRF24F1</t>
-  </si>
-  <si>
-    <t>443MHz</t>
   </si>
   <si>
     <t>CayenneLPP</t>
@@ -46,12 +40,18 @@
   <si>
     <t>Encription (ChaCha20, Speck+CFB, AES+CFB)</t>
   </si>
+  <si>
+    <t>EnigmaIoT Protocol</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -170,6 +170,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -233,24 +240,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -259,6 +248,21 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <bgColor theme="2" tint="0.39994506668294322"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <bgColor theme="0" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
   </fills>
@@ -572,10 +576,10 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -584,37 +588,37 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1193,7 +1197,7 @@
   <dimension ref="F14:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1204,46 +1208,46 @@
     <row r="17" spans="6:10" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="6:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F18" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="6:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F19" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="6:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="6:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="10"/>
-    </row>
-    <row r="21" spans="6:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="11" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13" t="s">
+      <c r="I21" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I21" s="14" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/doc/System layers.xlsx
+++ b/doc/System layers.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ESP-NOW</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>Custom format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Application layer  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Link layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Physical layer</t>
+  </si>
+  <si>
+    <t>link control</t>
+  </si>
+  <si>
+    <t>Not currently implemented</t>
   </si>
 </sst>
 </file>
@@ -178,7 +196,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +283,29 @@
         <bgColor theme="0" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
+    <fill>
+      <gradientFill>
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFBF9ED6"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -382,21 +421,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -408,16 +432,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -429,9 +481,67 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -444,36 +554,34 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -482,10 +590,8 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -494,13 +600,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -509,46 +613,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -574,53 +657,73 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -932,6 +1035,11 @@
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFBF9ED6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1194,69 +1302,371 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F14:J21"/>
+  <dimension ref="B7:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="14" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="16" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:10" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F18" s="3" t="s">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="23"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="2:15" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="2:15" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="2:15" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="3:15" ht="13.5" hidden="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" spans="3:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5" t="s">
+      <c r="G18" s="14"/>
+      <c r="H18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="6:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F19" s="7" t="s">
+      <c r="K18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="3:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="17"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="6:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F20" s="10" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="3:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="18"/>
+      <c r="D20" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="6:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="1" t="s">
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+    </row>
+    <row r="21" spans="3:15" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="17"/>
+      <c r="D21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="13" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="G21" s="4"/>
+      <c r="H21" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="I21" s="11"/>
+      <c r="J21" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="K21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="F20:J20"/>
+  <mergeCells count="8">
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
